--- a/Tables/Top_NonGemma_Candidates.xlsx
+++ b/Tables/Top_NonGemma_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srp33/GitRepos/GEO_NLP/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B999F98-9B22-8C44-8CBB-7F5C186D1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C19BA9-CC9B-6446-B63B-31E6FC2792C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="500" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1223">
   <si>
     <t>Model</t>
   </si>
@@ -10385,6 +10385,9 @@
   </si>
   <si>
     <t>Primary sample(s)</t>
+  </si>
+  <si>
+    <t>Relevant to breast carcinoma but not TNBC specifically.</t>
   </si>
 </sst>
 </file>
@@ -10435,7 +10438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10444,12 +10447,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10758,8 +10755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="I228" sqref="I228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12227,7 +12224,7 @@
         <v>0.85437687238057458</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>837</v>
+        <v>1222</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>13</v>
@@ -12268,7 +12265,7 @@
         <v>0.85431347290674842</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>837</v>
+        <v>1222</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>13</v>
@@ -12558,7 +12555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -12675,7 +12672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="224" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -14433,7 +14430,7 @@
       <c r="G93" s="2">
         <v>0.84229960511712465</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="2" t="s">
         <v>944</v>
       </c>
       <c r="I93" s="2" t="s">
@@ -19352,31 +19349,31 @@
       </c>
     </row>
     <row r="220" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A220" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B220" s="5" t="s">
+      <c r="A220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="E220" s="5" t="s">
+      <c r="E220" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="F220" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G220" s="5">
+      <c r="G220" s="2">
         <v>0.86300208699812586</v>
       </c>
-      <c r="H220" s="5" t="s">
+      <c r="H220" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="I220" s="5" t="s">
+      <c r="I220" s="2" t="s">
         <v>834</v>
       </c>
       <c r="J220" s="2" t="s">
@@ -19497,7 +19494,7 @@
         <v>1077</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>13</v>
@@ -19772,7 +19769,7 @@
         <v>1086</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>13</v>
@@ -20056,7 +20053,7 @@
         <v>1096</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>13</v>
